--- a/Documentation/dates & nb périodes.xlsx
+++ b/Documentation/dates & nb périodes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA373FA-0D9E-4858-B25D-7CC5D2511CF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +19,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Vendredi Saint</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,11 +459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="A25:B27"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,18 +752,18 @@
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="12">
         <v>43182</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="12">
         <v>43186</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="13">
         <v>5</v>
       </c>
     </row>
@@ -764,6 +773,9 @@
       </c>
       <c r="B30">
         <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
